--- a/medicine/Pharmacie/Oprelvekin/Oprelvekin.xlsx
+++ b/medicine/Pharmacie/Oprelvekin/Oprelvekin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'oprelvekin, est un médicament destiné à traiter la thrombopénie. Il est vendu sous la marque Neumega[1].
+L'oprelvekin, est un médicament destiné à traiter la thrombopénie. Il est vendu sous la marque Neumega.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une forme recombinante d'interleukine 11 qui stimule principalement la production de plaquettes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une forme recombinante d'interleukine 11 qui stimule principalement la production de plaquettes.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un médicament utilisé pour prévenir un faible taux de plaquettes dû à la chimiothérapie. Il est administré par injection sous-cutanée. Les effets commencent après environ 7 jours et se poursuivent pendant environ 7 jours après la dernière dose[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un médicament utilisé pour prévenir un faible taux de plaquettes dû à la chimiothérapie. Il est administré par injection sous-cutanée. Les effets commencent après environ 7 jours et se poursuivent pendant environ 7 jours après la dernière dose.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les effets secondaires courants comprennent un œdème, une fréquence cardiaque rapide, un essoufflement et des yeux rouges; d'autres effets secondaires peuvent inclure l'anaphylaxie, l'insuffisance cardiaque et la fibrillation atriale.
 </t>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oprelvekin a été approuvé pour un usage médical aux États-Unis en 1997. Aux États-Unis, cela coûte environ 470 dollars américain par flacon de 5 mg à partir de 2021. Au Canada, il est disponible via un programme d'accès spécial[2],[3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oprelvekin a été approuvé pour un usage médical aux États-Unis en 1997. Aux États-Unis, cela coûte environ 470 dollars américain par flacon de 5 mg à partir de 2021. Au Canada, il est disponible via un programme d'accès spécial.
 </t>
         </is>
       </c>
